--- a/all_api_endpoints_full.xlsx
+++ b/all_api_endpoints_full.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2334819\Downloads\Foods\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA237DD-F4C5-47E5-9209-E1D4E6928B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="80">
   <si>
     <t>s.no</t>
   </si>
@@ -176,13 +183,3185 @@
   </si>
   <si>
     <t>/evictCache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request </t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>["d16eb3ef-9da2-4ba5-ad79-05c0ac1ba52e","71dad8df-bf7e-4dbe-be66-ce9c3d7c5af8","654fd403-b97b-4cfe-9ba1-78f14c302b9e","a0315d39-d00e-4f6e-8c3b-63565057db44"]</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "71dad8df-bf7e-4dbe-be66-ce9c3d7c5af8": [
+            {
+                "id": "9dc47576-b31b-4f17-9963-ea0baed338f9",
+                "name": "Subbiah, Vibasini",
+                "email": "vibasini.subbiah@marks-and-spencer.com",
+                "fullName": "vibasini.subbiah"
+            }
+        ],
+        "654fd403-b97b-4cfe-9ba1-78f14c302b9e": [
+            {
+                "id": "82b7a9de-7538-4c2d-9ab7-89803a438f14",
+                "name": "Biradavolu, Vivekananda",
+                "email": "vivekananda.biradavolu@marks-and-spencer.com",
+                "fullName": "vivekananda.biradavolu"
+            },
+            {
+                "id": "def18459-d4da-48ae-8773-3e2e0206ff6e",
+                "name": "Manning, Colin",
+                "email": "colin.d.manning@marks-and-spencer.com",
+                "fullName": "colin.d.manning"
+            },
+            {
+                "id": "00e5b192-9bb8-487b-8e18-489bdf2d048d",
+                "name": "Wheeler, Alice",
+                "email": "alice.wheeler@marks-and-spencer.com",
+                "fullName": "alice.wheeler"
+            },
+            {
+                "id": "f0afec2a-4b34-4f05-83d2-ba6fb3e1fd9d",
+                "name": "Harmer, Jasneet",
+                "email": "jasneet.harmer@marks-and-spencer.com",
+                "fullName": "jasneet.harmer"
+            },
+            {
+                "id": "747f4a0b-b567-4ea4-a91c-801255b0a0bc",
+                "name": "Ow, Caroline",
+                "email": "caroline.ow@marks-and-spencer.com",
+                "fullName": "caroline.ow"
+            },
+            {
+                "id": "c3b8bfd3-c126-483a-950d-c73255be3663",
+                "name": "Zoe Kendrick",
+                "email": "zoe.kendrick@marks-and-spencer.com",
+                "fullName": "zoe.kendrick"
+            },
+            {
+                "id": "14b7413a-f8b7-4e85-9ecf-a64a0c9581ed",
+                "name": "Beeston, Georgia",
+                "email": "georgia.beeston@marks-and-spencer.com",
+                "fullName": "georgia.beeston"
+            },
+            {
+                "id": "b1377f59-33d1-4f19-87e4-bab4c823ece4",
+                "name": "Lambert, Zoë",
+                "email": "zoe.lambert@marks-and-spencer.com",
+                "fullName": "zoe.lambert"
+            },
+            {
+                "id": "775478ea-2523-42a4-8ba1-25b2c958d3bf",
+                "name": "Walker, Jennifer",
+                "email": "jennifer.walker@marks-and-spencer.com",
+                "fullName": "jennifer.walker"
+            },
+            {
+                "id": "698e7a28-d591-4eb2-a937-4717e1d6a972",
+                "name": "OFP Automation Test User5",
+                "email": "y5806540@marks-and-spencer.com",
+                "fullName": "y5806540"
+            },
+            {
+                "id": "dcaf7f1c-df44-476c-a8b4-590e2eda1767",
+                "name": "Shanbhag, Vivek",
+                "email": "vivek.shanbhag@marks-and-spencer.com",
+                "fullName": "vivek.shanbhag"
+            },
+            {
+                "id": "0a7498ef-1bf1-43ae-8015-56e8e714e78a",
+                "name": "Hawker, Sophie",
+                "email": "sophie.hawker@marks-and-spencer.com",
+                "fullName": "sophie.hawker"
+            },
+            {
+                "id": "eba36d16-070b-46ec-8835-aa06d42cd695",
+                "name": "Koppuravuri, Surya Nataraj",
+                "email": "suryanataraj.koppuravuri@marks-and-spencer.com",
+                "fullName": "suryanataraj.koppuravuri"
+            },
+            {
+                "id": "b671d3f1-1572-46e5-ac34-ed69308a976c",
+                "name": "Smith, Charlotte",
+                "email": "charlotte.y.smith@marks-and-spencer.com",
+                "fullName": "charlotte.y.smith"
+            },
+            {
+                "id": "265e0ab3-af9e-4a23-928c-076c3b421373",
+                "name": "Kenyon, Hannah",
+                "email": "hannah.kenyon@marks-and-spencer.com",
+                "fullName": "hannah.kenyon"
+            },
+            {
+                "id": "db29c25c-582a-4502-ac59-94e997d7605c",
+                "name": "Chundayil Mohammed, Manzoor",
+                "email": "manzoor.chundayilmohammed@marks-and-spencer.com",
+                "fullName": "manzoor.chundayilmohammed"
+            },
+            {
+                "id": "9d09c272-5155-40a5-9592-78092a615beb",
+                "name": "S, Sinduja",
+                "email": "sinduja.s@marks-and-spencer.com",
+                "fullName": "sinduja.s"
+            },
+            {
+                "id": "6bebbb47-c972-4c22-b01d-dc63c56ab8b5",
+                "name": "Chauhan, Smriti",
+                "email": "smriti.chauhan@marks-and-spencer.com",
+                "fullName": "smriti.chauhan"
+            }
+        ],
+        "d16eb3ef-9da2-4ba5-ad79-05c0ac1ba52e": [
+            {
+                "id": "410b2cb1-512f-442f-bc72-4606ff2072ce",
+                "name": "Maitland, Vivien",
+                "email": "vivien.maitland@marks-and-spencer.com",
+                "fullName": "vivien.maitland"
+            },
+            {
+                "id": "b0322176-c667-4366-a427-5b5419b8befa",
+                "name": "Shetty, Shrikant",
+                "email": "shrikant.shetty@marks-and-spencer.com",
+                "fullName": "shrikant.shetty"
+            },
+            {
+                "id": "4e7fc6bd-7093-433a-9f99-47c07d218786",
+                "name": "Carlisle, Wesley",
+                "email": "wesley.carlisle@marks-and-spencer.com",
+                "fullName": "wesley.carlisle"
+            },
+            {
+                "id": "d1bf1e47-84c8-4623-be4f-adf619fb65d4",
+                "name": "Palayil, Sreedhar",
+                "email": "sreedhar.palayil@marks-and-spencer.com",
+                "fullName": "sreedhar.palayil"
+            },
+            {
+                "id": "74b7280a-6a8d-49e6-863c-3c04fb3010a2",
+                "name": "Gittens, Olivia",
+                "email": "olivia.x.gittens@marks-and-spencer.com",
+                "fullName": "olivia.x.gittens"
+            },
+            {
+                "id": "5a1a54e1-7f85-4403-8113-b226a488be4f",
+                "name": "Subbaiyan, Senthamizh",
+                "email": "senthamizh.subbaiyan@marks-and-spencer.com",
+                "fullName": "senthamizh.subbaiyan"
+            },
+            {
+                "id": "6d910165-61c9-4459-802b-206211fca86f",
+                "name": "Cherian, Neethu",
+                "email": "neethu.cherian@marks-and-spencer.com",
+                "fullName": "neethu.cherian"
+            },
+            {
+                "id": "a497713c-21fc-494e-a912-cfcb6d4eaaa0",
+                "name": "Rankine, Catriona",
+                "email": "catriona.rankine@marks-and-spencer.com",
+                "fullName": "catriona.rankine"
+            },
+            {
+                "id": "dec31a35-7892-48fb-b2a2-805d4728bb7b",
+                "name": "Malla, Sagun",
+                "email": "sagun.malla@marks-and-spencer.com",
+                "fullName": "sagun.malla"
+            },
+            {
+                "id": "da72e6d9-4fa2-49f8-822c-fe85fec00c57",
+                "name": "OFP Automation Test User7",
+                "email": null,
+                "fullName": null
+            },
+            {
+                "id": "abc18014-a655-43b1-984d-cf304b48a2ea",
+                "name": "Subair, Mohamed",
+                "email": "mohamed.subair@marks-and-spencer.com",
+                "fullName": "mohamed.subair"
+            },
+            {
+                "id": "c8fa3e99-d18a-4583-8d61-55f0d5ba171e",
+                "name": "OFP Automation Test User28",
+                "email": null,
+                "fullName": null
+            },
+            {
+                "id": "0ef9c504-b27f-4cb1-b85b-a54f3d470d76",
+                "name": "Kannappan, Karthik",
+                "email": "karthik.kannappan@marks-and-spencer.com",
+                "fullName": "karthik.kannappan"
+            },
+            {
+                "id": "015fdc01-cff4-47ac-aa25-269ad81d85a7",
+                "name": "Cuthbert, Sarah",
+                "email": "sarah.cuthbert@marks-and-spencer.com",
+                "fullName": "sarah.cuthbert"
+            },
+            {
+                "id": "506ec00a-3d86-4303-a3b8-4236dcf7b056",
+                "name": "Kumar, Mohit",
+                "email": "mohit.kumar1@marks-and-spencer.com",
+                "fullName": "mohit.kumar1"
+            },
+            {
+                "id": "b010a6fb-2f1a-4e9d-86e8-8f8e220a4322",
+                "name": "T, Kumaresan",
+                "email": "kumaresan.t@marks-and-spencer.com",
+                "fullName": "kumaresan.t"
+            },
+            {
+                "id": "5b9ec41b-0658-4c02-9596-790616631d54",
+                "name": "OFP Test Account 2",
+                "email": "t6006638@marks-and-spencer.com",
+                "fullName": "t6006638"
+            }
+        ],
+        "a0315d39-d00e-4f6e-8c3b-63565057db44": [
+            {
+                "id": "51952cc8-cae3-47d2-a372-796f92a7473e",
+                "name": "Martin, Gregory",
+                "email": "gregory.martin@marks-and-spencer.com",
+                "fullName": "gregory.martin"
+            },
+            {
+                "id": "619ede79-5ee9-45b6-af78-cf25d2e8c980",
+                "name": "Narayanasamy Selvaraj, Kallidossan",
+                "email": "kallidossan.narayanasamyselvaraj@marks-and-spencer.com",
+                "fullName": "kallidossan.narayanasamyselvaraj"
+            },
+            {
+                "id": "778e35fe-c807-4d53-95ca-4990c7a6a001",
+                "name": "Polizoudi, Panagiota",
+                "email": "panagiota.polyzoudi@marks-and-spencer.com",
+                "fullName": "panagiota.polyzoudi"
+            },
+            {
+                "id": "fc977489-3fd0-48f7-a7a2-5f87cae0757d",
+                "name": "Nadarajan, Aavudai",
+                "email": "aavudai.nadarajan@marks-and-spencer.com",
+                "fullName": "aavudai.nadarajan"
+            },
+            {
+                "id": "6fcdd7e8-17f5-49d9-a410-9726d6ca0392",
+                "name": "Cross, Alex",
+                "email": "alex.cross2@marks-and-spencer.com",
+                "fullName": "alex.cross2"
+            },
+            {
+                "id": "ac35dcaf-b71b-4f44-a2f1-be1c9234bd71",
+                "name": "Dawson, Chris",
+                "email": "chris.dawson@marks-and-spencer.com",
+                "fullName": "chris.dawson"
+            },
+            {
+                "id": "093f64a8-7f31-4185-8f5a-9f1c1f941ddc",
+                "name": "Thiagarajah, Suthan",
+                "email": "suthan.thiagarajah@marks-and-spencer.com",
+                "fullName": "suthan.thiagarajah"
+            },
+            {
+                "id": "d522b31d-06f9-4537-b206-0f0b21973437",
+                "name": "Ramirez, Nicolash",
+                "email": "nicolash.ramirez@marks-and-spencer.com",
+                "fullName": "nicolash.ramirez"
+            },
+            {
+                "id": "cc447fa4-40b0-454f-85f6-c88160e5836d",
+                "name": "Parveen S A, Fariha",
+                "email": "fariha.parveensa@marks-and-spencer.com",
+                "fullName": "fariha.parveensa"
+            },
+            {
+                "id": "6d11a289-1ecd-4acb-b41d-c0fb679be498",
+                "name": "Sheikh, Raza",
+                "email": "raza.x.sheikh@marks-and-spencer.com",
+                "fullName": "raza.x.sheikh"
+            },
+            {
+                "id": "4d07fa9a-e16f-4b42-ab69-39e759599797",
+                "name": "OFP Automation Test User1",
+                "email": null,
+                "fullName": null
+            },
+            {
+                "id": "9ef89404-450a-460f-9982-be5235f0be31",
+                "name": "TradePlanning003",
+                "email": "tacc003.tradingcommerical@marks-and-spencer.com",
+                "fullName": "tacc003.tradingcommerical"
+            },
+            {
+                "id": "e00acc97-5989-4625-bff2-a2a88af38a17",
+                "name": "Naveen, Bari",
+                "email": "bari.naveen@marks-and-spencer.com",
+                "fullName": "bari.naveen"
+            },
+            {
+                "id": "7ad3201a-9193-4817-9f60-e1aa88bbea5a",
+                "name": "Technology_Cloud-testpimnew02 Ecosystem Yaccount",
+                "email": null,
+                "fullName": null
+            },
+            {
+                "id": "76827ba7-2dbd-4102-9c8b-e16e78a0088c",
+                "name": "System Buyer Account For RDA",
+                "email": "y0004986@marks-and-spencer.com",
+                "fullName": "y0004986"
+            },
+            {
+                "id": "a6fe6495-1f72-4358-a262-ad01c2730342",
+                "name": "Manogaran, Srinivasan",
+                "email": "srinivasan.manogaran@marks-and-spencer.com",
+                "fullName": "srinivasan.manogaran"
+            },
+            {
+                "id": "c1fdeb6d-f13b-48bc-9067-1e4adfe1890d",
+                "name": "Marsh, Tom",
+                "email": "tom.marsh@marks-and-spencer.com",
+                "fullName": "tom.marsh"
+            },
+            {
+                "id": "506ec00a-3d86-4303-a3b8-4236dcf7b056",
+                "name": "Kumar, Mohit",
+                "email": "mohit.kumar1@marks-and-spencer.com",
+                "fullName": "mohit.kumar1"
+            },
+            {
+                "id": "f2387f50-3996-4268-9595-ccb580621c5c",
+                "name": "Bates, Emma",
+                "email": "emma.bates@marks-and-spencer.com",
+                "fullName": "emma.bates"
+            },
+            {
+                "id": "2c899c89-9290-4b1e-88ce-ff685591d544",
+                "name": "SCAP non prod buyer",
+                "email": null,
+                "fullName": null
+            },
+            {
+                "id": "95a72b33-510e-412b-8122-aebf2bae52eb",
+                "name": "OFP Test Account 1",
+                "email": "t6006636@marks-and-spencer.com",
+                "fullName": "t6006636"
+            },
+            {
+                "id": "7da889c6-957d-496c-8289-282a18132b3e",
+                "name": "SCAP Buyer 2",
+                "email": "t0005054@marks-and-spencer.com",
+                "fullName": "t0005054"
+            },
+            {
+                "id": "ef498e9a-b80a-4b48-b5d3-fbb44f81be12",
+                "name": "Parasuram, Yamini",
+                "email": "yamini.parasuram@marks-and-spencer.com",
+                "fullName": "yamini.parasuram"
+            },
+            {
+                "id": "b96f5f87-9a21-4b33-8069-c53e4f1155d1",
+                "name": "Sekar, Vinoth Kumar",
+                "email": "vinothkumar.sekar1@marks-and-spencer.com",
+                "fullName": "vinothkumar.sekar1"
+            },
+            {
+                "id": "b9bc3775-c17b-4090-a717-c14fa740767e",
+                "name": "Sridharan, Kirtivas",
+                "email": "kirtivas.sridharan@marks-and-spencer.com",
+                "fullName": "kirtivas.sridharan"
+            }
+        ]
+    },
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>{"userRole":"projectManager"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "data": [
+        {
+            "id": "68c94707b0dd79e14e69395d",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "68c94707b0dd79e14e69395d",
+                "projectName": "25-26 Amb Celeb Easter Confectionery",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Creative Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-12-29T00:00:00",
+                "comments": "",
+                "cluster": "Ambient Food"
+            }
+        },
+        {
+            "id": "689b1e56eea27715716fc83c",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "689b1e56eea27715716fc83c",
+                "projectName": "test",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2021-2022",
+                "comments": "",
+                "cluster": "Ambient Food"
+            }
+        },
+        {
+            "id": "688a3bed398757955c743c09",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "688a3bed398757955c743c09",
+                "projectName": "Abc",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2027-2028",
+                "projectCompletionDate": "2025-07-22T23:00:00",
+                "comments": "",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F01C Poultry"
+                ]
+            }
+        },
+        {
+            "id": "683952817a3d29796115f2dc",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "683952817a3d29796115f2dc",
+                "projectName": "rolling project",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2023-2024",
+                "comments": "",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "68381a61952ad50c95055ec7",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "68381a61952ad50c95055ec7",
+                "projectName": "project",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2021-2022",
+                "projectCompletionDate": "2025-05-19T18:30:00",
+                "comments": "",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "6800f79f648a1e4d972ea43b",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "6800f79f648a1e4d972ea43b",
+                "projectName": "25 -26 Amb Christmas Confectionary - Standard Test",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Creative Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-04-24T00:00:00",
+                "comments": "test",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F02F Frozen"
+                ]
+            }
+        },
+        {
+            "id": "67f37288edabbc28beac3613",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67f37288edabbc28beac3613",
+                "projectName": "Standard Rolling Test",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2024-2025",
+                "comments": "",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67eb76c5edabbc28beac35e0",
+            "templateName": "Horti.com",
+            "templateId": "Horti.com",
+            "information": {
+                "id": "67eb76c5edabbc28beac35e0",
+                "projectName": "Horti.com Rolling Reversion Test",
+                "templateId": "Horti.com",
+                "templateName": "Horti.com",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2023-2024",
+                "cluster": "Convenience",
+                "categories": [
+                    "F05C Cook"
+                ]
+            }
+        },
+        {
+            "id": "67eb76a3edabbc28beac35df",
+            "templateName": "Horti Stores",
+            "templateId": "Horti Stores",
+            "information": {
+                "id": "67eb76a3edabbc28beac35df",
+                "projectName": "Horti Stores Rolling Test Zephyr",
+                "templateId": "Horti Stores",
+                "templateName": "Horti Stores",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2023-2024",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67eb7677edabbc28beac35de",
+            "templateName": "Hampers",
+            "templateId": "Hampers",
+            "information": {
+                "id": "67eb7677edabbc28beac35de",
+                "projectName": "Hampers Rolling Reversion Test",
+                "templateId": "Hampers",
+                "templateName": "Hampers",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2023-2024",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67eb7656edabbc28beac35dd",
+            "templateName": "Hospitality",
+            "templateId": "Hospitality",
+            "information": {
+                "id": "67eb7656edabbc28beac35dd",
+                "projectName": "Hospitality Rolling Reversion Test",
+                "templateId": "Hospitality",
+                "templateName": "Hospitality",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2022-2023",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "67eb7633edabbc28beac35dc",
+            "templateName": "CFTO_FTO",
+            "templateId": "CFTO_FTO",
+            "information": {
+                "id": "67eb7633edabbc28beac35dc",
+                "projectName": "CFTO FTO Rolling Reversion Test",
+                "templateId": "CFTO_FTO",
+                "templateName": "CFTO_FTO",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2022-2023",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "67eb7616edabbc28beac35db",
+            "templateName": "ISB",
+            "templateId": "ISB",
+            "information": {
+                "id": "67eb7616edabbc28beac35db",
+                "projectName": "ISB Rolling Test",
+                "templateId": "ISB",
+                "templateName": "ISB",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2024-2025",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67eb75f6edabbc28beac35da",
+            "templateName": "Wines",
+            "templateId": "Wines",
+            "information": {
+                "id": "67eb75f6edabbc28beac35da",
+                "projectName": "Wines Rolling Test",
+                "templateId": "Wines",
+                "templateName": "Wines",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2024-2025",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67eb74b5edabbc28beac35d8",
+            "templateName": "Horti.com",
+            "templateId": "Horti.com",
+            "information": {
+                "id": "67eb74b5edabbc28beac35d8",
+                "projectName": "Horti.com Standard NPD Test",
+                "templateId": "Horti.com",
+                "templateName": "Horti.com",
+                "status": "Creative Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-04-29T00:00:00",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "67eb7497edabbc28beac35d7",
+            "templateName": "Horti Stores",
+            "templateId": "Horti Stores",
+            "information": {
+                "id": "67eb7497edabbc28beac35d7",
+                "projectName": "Horti Stores Standard NPD Test",
+                "templateId": "Horti Stores",
+                "templateName": "Horti Stores",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2021-2022",
+                "projectCompletionDate": "2025-04-28T00:00:00",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "67eb7468edabbc28beac35d6",
+            "templateName": "Hampers",
+            "templateId": "Hampers",
+            "information": {
+                "id": "67eb7468edabbc28beac35d6",
+                "projectName": "Hampers Standard NPD Reversion Test",
+                "templateId": "Hampers",
+                "templateName": "Hampers",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2024-2025",
+                "projectCompletionDate": "2025-04-28T00:00:00",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67eb7433edabbc28beac35d5",
+            "templateName": "Hospitality",
+            "templateId": "Hospitality",
+            "information": {
+                "id": "67eb7433edabbc28beac35d5",
+                "projectName": "Hospitality Standard NPD Test",
+                "templateId": "Hospitality",
+                "templateName": "Hospitality",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2029-2030",
+                "projectCompletionDate": "2025-04-28T00:00:00",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "67eb7407edabbc28beac35d4",
+            "templateName": "CFTO_FTO",
+            "templateId": "CFTO_FTO",
+            "information": {
+                "id": "67eb7407edabbc28beac35d4",
+                "projectName": "CFTO FTO Standard NPD Test",
+                "templateId": "CFTO_FTO",
+                "templateName": "CFTO_FTO",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2023-2024",
+                "projectCompletionDate": "2025-04-28T00:00:00",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67eb73dcedabbc28beac35d3",
+            "templateName": "ISB",
+            "templateId": "ISB",
+            "information": {
+                "id": "67eb73dcedabbc28beac35d3",
+                "projectName": "ISB Standard NPD Test",
+                "templateId": "ISB",
+                "templateName": "ISB",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-04-28T00:00:00",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67eb73b6edabbc28beac35d2",
+            "templateName": "Wines",
+            "templateId": "Wines",
+            "information": {
+                "id": "67eb73b6edabbc28beac35d2",
+                "projectName": "Wines Standard NPD Test",
+                "templateId": "Wines",
+                "templateName": "Wines",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-04-28T00:00:00",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "67eb7393edabbc28beac35d1",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67eb7393edabbc28beac35d1",
+                "projectName": "Standard Standard NPD Test",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2024-2025",
+                "projectCompletionDate": "2025-04-28T00:00:00",
+                "comments": "",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "67d8382c8253a15ce33d472b",
+            "templateName": "Hampers",
+            "templateId": "Hampers",
+            "information": {
+                "id": "67d8382c8253a15ce33d472b",
+                "projectName": "25-26 SIT grand parent scenario",
+                "templateId": "Hampers",
+                "templateName": "Hampers",
+                "status": "Finalise Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-06-25T23:00:00",
+                "comments": "",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F18A Direct Hampers"
+                ]
+            }
+        },
+        {
+            "id": "67d188e55b539b0a8ccfcb63",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67d188e55b539b0a8ccfcb63",
+                "projectName": "Image Testing",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2026-01-16T00:00:00",
+                "comments": "",
+                "cluster": "Ambient Food"
+            }
+        },
+        {
+            "id": "67d046db5b539b0a8ccfcb4e",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67d046db5b539b0a8ccfcb4e",
+                "projectName": "Test",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-07-26T00:00:00",
+                "comments": "",
+                "cluster": "Ambient Food"
+            }
+        },
+        {
+            "id": "67cea846b82959d68975d627",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67cea846b82959d68975d627",
+                "projectName": "23-24 Bakery ISB Scones upgrade SIT",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-07-29T23:00:00",
+                "comments": "",
+                "cluster": "Protein, Deli &amp; Bakery",
+                "categories": [
+                    "F27A In Store Bakery"
+                ]
+            }
+        },
+        {
+            "id": "67d0aaccb971bb9892f0797e",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67d0aaccb971bb9892f0797e",
+                "projectName": "23-24 Direct Hampers Xmas In Store SIT",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Finalise Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2023-2024",
+                "projectCompletionDate": "2023-09-06T23:00:00",
+                "comments": "",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F18A Direct Hampers"
+                ]
+            }
+        },
+        {
+            "id": "67d084adb971bb9892f07978",
+            "templateName": "Hampers",
+            "templateId": "Hampers",
+            "information": {
+                "id": "67d084adb971bb9892f07978",
+                "projectName": "25-26 Direct Hampers Xmas Online SIT",
+                "templateId": "Hampers",
+                "templateName": "Hampers",
+                "status": "Creative Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-09-29T23:00:00",
+                "comments": "",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F18A Direct Hampers"
+                ]
+            }
+        },
+        {
+            "id": "67cf0e57b82959d68975d639",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67cf0e57b82959d68975d639",
+                "projectName": "23-24 Bakery ISB Yumnut Refresh SIT",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-09-02T23:00:00",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F33A Ambient Celebration",
+                    "F13A Confectionery"
+                ]
+            }
+        },
+        {
+            "id": "673f46dcc8b4ae7b9a18c993",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "673f46dcc8b4ae7b9a18c993",
+                "projectName": "Amb Celeb Christmas Confectionary",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Finalise Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-02-28T00:00:00",
+                "comments": "",
+                "cluster": "Ambient Non-Food",
+                "categories": [
+                    "F03C Global Meal Solutions"
+                ]
+            }
+        },
+        {
+            "id": "67b71fa85735161ee31d4c9a",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67b71fa85735161ee31d4c9a",
+                "projectName": "SIT CI FEB 26 project",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-05-14T18:30:00",
+                "cluster": "Ambient Food"
+            }
+        },
+        {
+            "id": "67b49ad83fb3766e1fb5c2f5",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67b49ad83fb3766e1fb5c2f5",
+                "projectName": "Branded project",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2028-2029",
+                "projectCompletionDate": "2025-02-25T00:00:00",
+                "cluster": "Hospitality"
+            }
+        },
+        {
+            "id": "6793a1068ebeb02723c94f7e",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "6793a1068ebeb02723c94f7e",
+                "projectName": "Test Launcg Date",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-03-25T00:00:00",
+                "comments": "",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F02F Frozen",
+                    "F03C Global Meal Solutions"
+                ]
+            }
+        },
+        {
+            "id": "6773885f5effe858fd03c4b8",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "6773885f5effe858fd03c4b8",
+                "projectName": "Standard CFTO Fields Test",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Finalise Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-04-23T00:00:00",
+                "cluster": "Ambient Food"
+            }
+        },
+        {
+            "id": "677388185effe858fd03c4b7",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "677388185effe858fd03c4b7",
+                "projectName": "CFTO Section Test",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Finalise Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-01-26T00:00:00",
+                "comments": "",
+                "cluster": "Convenience",
+                "categories": [
+                    "F03C Global Meal Solutions"
+                ]
+            }
+        },
+        {
+            "id": "67727657703eb96ccea4ce97",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "67727657703eb96ccea4ce97",
+                "projectName": "25-26 Global Meals - Snacking",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-07-09T23:00:00",
+                "comments": "",
+                "cluster": "Convenience",
+                "categories": [
+                    "F03C Global Meal Solutions"
+                ]
+            }
+        },
+        {
+            "id": "675823dace320871c2f66ad1",
+            "templateName": "Hospitality",
+            "templateId": "Hospitality",
+            "information": {
+                "id": "675823dace320871c2f66ad1",
+                "projectName": "CI Test FEB 26",
+                "templateId": "Hospitality",
+                "templateName": "Hospitality",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2024-2025",
+                "projectCompletionDate": "2024-12-31T00:00:00",
+                "comments": "",
+                "cluster": "Convenience",
+                "categories": [
+                    "F04C Delicatessen"
+                ]
+            }
+        },
+        {
+            "id": "6749b5222cf1ad35a82f722b",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "6749b5222cf1ad35a82f722b",
+                "projectName": "IFOS Test Project",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Creative Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2024-2025",
+                "projectCompletionDate": "2024-04-17T00:00:00",
+                "comments": "test",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F01C Poultry"
+                ]
+            }
+        },
+        {
+            "id": "671b394e404f1b6381829d74",
+            "templateName": "ISB",
+            "templateId": "ISB",
+            "information": {
+                "id": "671b394e404f1b6381829d74",
+                "projectName": "test download isb",
+                "templateId": "ISB",
+                "templateName": "ISB",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2027-2028",
+                "projectCompletionDate": "2024-10-29T00:00:00",
+                "comments": "",
+                "cluster": "Hospitality"
+            }
+        },
+        {
+            "id": "671b266a404f1b6381829d6f",
+            "templateName": "Horti Stores",
+            "templateId": "Horti Stores",
+            "information": {
+                "id": "671b266a404f1b6381829d6f",
+                "projectName": "test download horti stores",
+                "templateId": "Horti Stores",
+                "templateName": "Horti Stores",
+                "status": "Finalise Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2028-2029",
+                "projectCompletionDate": "2024-10-29T00:00:00",
+                "comments": "",
+                "cluster": "Hospitality"
+            }
+        },
+        {
+            "id": "671b1c83404f1b6381829d6c",
+            "templateName": "Hampers",
+            "templateId": "Hampers",
+            "information": {
+                "id": "671b1c83404f1b6381829d6c",
+                "projectName": "test download hampers",
+                "templateId": "Hampers",
+                "templateName": "Hampers",
+                "status": "Finalise Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2027-2028",
+                "projectCompletionDate": "2024-10-29T00:00:00",
+                "comments": "",
+                "cluster": "Convenience"
+            }
+        },
+        {
+            "id": "671a81b5404f1b6381829d63",
+            "templateName": "Horti.com",
+            "templateId": "Horti.com",
+            "information": {
+                "id": "671a81b5404f1b6381829d63",
+                "projectName": "test download horti.com",
+                "templateId": "Horti.com",
+                "templateName": "Horti.com",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2026-2027",
+                "projectCompletionDate": "2024-10-29T00:00:00",
+                "comments": "",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "671a7c37404f1b6381829d60",
+            "templateName": "Hospitality",
+            "templateId": "Hospitality",
+            "information": {
+                "id": "671a7c37404f1b6381829d60",
+                "projectName": "test download hospitality",
+                "templateId": "Hospitality",
+                "templateName": "Hospitality",
+                "status": "Post-Finalise Gate",
+                "projectType": "Standard NPD",
+                "financialYear": "2026-2027",
+                "projectCompletionDate": "2024-10-28T00:00:00",
+                "comments": "",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "6719e077404f1b6381829d02",
+            "templateName": "CFTO_FTO",
+            "templateId": "CFTO_FTO",
+            "information": {
+                "id": "6719e077404f1b6381829d02",
+                "projectName": "test download cfto",
+                "templateId": "CFTO_FTO",
+                "templateName": "CFTO_FTO",
+                "status": "Creative Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2024-10-28T00:00:00",
+                "comments": "",
+                "cluster": "FOPA"
+            }
+        },
+        {
+            "id": "6719c6f9404f1b6381829cfe",
+            "templateName": "Wines",
+            "templateId": "Wines",
+            "information": {
+                "id": "6719c6f9404f1b6381829cfe",
+                "projectName": "test download wines",
+                "templateId": "Wines",
+                "templateName": "Wines",
+                "status": "Creative Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2024-2025",
+                "projectCompletionDate": "2025-04-20T23:00:00",
+                "comments": "",
+                "cluster": "Ambient Non-Food",
+                "categories": [
+                    "F23A Direct Wines"
+                ]
+            }
+        },
+        {
+            "id": "6719c06a404f1b6381829cf6",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "6719c06a404f1b6381829cf6",
+                "projectName": "test download standard rolling",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Active",
+                "projectType": "Rolling",
+                "financialYear": "2024-2025",
+                "comments": "",
+                "cluster": "Hospitality"
+            }
+        },
+        {
+            "id": "6718d5f9404f1b6381829cdf",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "6718d5f9404f1b6381829cdf",
+                "projectName": "Test download standard",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2027-2028",
+                "projectCompletionDate": "2024-10-17T18:30:00",
+                "comments": "",
+                "cluster": "Ambient Non-Food"
+            }
+        },
+        {
+            "id": "670d32be97507c27c456afd2",
+            "templateName": "Standard",
+            "templateId": "Standard",
+            "information": {
+                "id": "670d32be97507c27c456afd2",
+                "projectName": "Test demo",
+                "templateId": "Standard",
+                "templateName": "Standard",
+                "status": "Creative Stage",
+                "projectType": "Standard NPD",
+                "financialYear": "2025-2026",
+                "projectCompletionDate": "2025-02-04T00:00:00",
+                "comments": "",
+                "cluster": "Ambient Food",
+                "categories": [
+                    "F01C Poultry"
+                ]
+            }
+        },
+        {
+            "id": "67052a04730b276c61ec9ab1",
+            "templateName": "CFTO_FTO",
+            "templateId": "CFTO_FTO",
+            "information": {
+                "id": "67052a04730b276c61ec9ab1",
+                "projectName": "24-25 Fresh Xmas - CFTO-UAT",
+                "templateId": "CFTO_FTO",
+                "templateName": "CFTO_FTO",
+                "status": "Draft",
+                "projectType": "Standard NPD",
+                "financialYear": "2024-2025",
+                "projectCompletionDate": "2024-12-20T00:00:00",
+                "comments": "",
+                "cluster": "Protein, Deli &amp; Bakery",
+                "categories": [
+                    "F01C Poultry",
+                    "F02F Frozen",
+                    "F03C Global Meal Solutions",
+                    "F04C Delicatessen",
+                    "F05C Cook",
+                    "F06C Dairy",
+                    "F07C Food onthe Move",
+                    "F08C Desserts",
+                    "F09A Bakery",
+                    "F10A Biscuits",
+     </t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "id": "622b5f839b6e5d3b10be7d42",
+            "objectId": "d16eb3ef-9da2-4ba5-ad79-05c0ac1ba52e",
+            "name": "Food technologist",
+            "role": "foodTechnologist"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d45",
+            "objectId": "e8123a5e-fb1d-42a5-bd0d-136e84fd5175",
+            "name": "Ocado",
+            "role": "ocado"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d48",
+            "objectId": "2b5a8756-1750-447f-8978-6d5229e5508c",
+            "name": "VAT",
+            "role": "vat"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d43",
+            "objectId": "c544c4e4-7a62-4995-b13e-c62e759166d7",
+            "name": "International",
+            "role": "international"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d44",
+            "objectId": "6310dafd-17c7-4f00-a56b-6db12e5a2b1e",
+            "name": "Commercial Planner",
+            "role": "commercialPlanner"
+        },
+        {
+            "id": "629051fa81f3f89974d11079",
+            "objectId": "6b694899-8472-49ae-bfe2-9e7c4337b86d",
+            "name": "Display Planner",
+            "role": "displayPlanner"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d40",
+            "objectId": "71dad8df-bf7e-4dbe-be66-ce9c3d7c5af8",
+            "name": "Product Developer",
+            "role": "productDeveloper"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d47",
+            "objectId": "17051f8e-879a-4ad6-aa1c-c7310cd79c66",
+            "name": "Ashbury",
+            "role": "ashbury"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d3f",
+            "objectId": "654fd403-b97b-4cfe-9ba1-78f14c302b9e",
+            "name": "Project Manager",
+            "role": "projectManager"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d41",
+            "objectId": "a0315d39-d00e-4f6e-8c3b-63565057db44",
+            "name": "Buyer",
+            "role": "buyer"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d46",
+            "objectId": "02238c79-71ae-4aa0-9b7c-a76f05a59385",
+            "name": "GSP",
+            "role": "gsp"
+        },
+        {
+            "id": "629051fa81f3f89974d1107a",
+            "objectId": "41251a61-04b6-4342-bb1b-97cd57fbcf65",
+            "name": ".COM",
+            "role": "dotcom"
+        }
+    ],
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>["PROJECT TYPE","STATUS","LAUNCH PHASE","FIND PRODUCT FILE TYPE","UNIT OF MEASURE","PROJECT STATUS STANDARD NPD","REASONS FOR CHANGE","CATEGORY","CLUSTER","PROJECT STATUS STANDARD NPD","PRODUCT STAGE","PROJECT STATUS ROLLING","PRODUCT TYPE","PAL PAGE ROLE RESTRICTION"]</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "id": "FIND PRODUCT FILE TYPE",
+            "values": [
+                "Standard",
+                "Parent"
+            ]
+        },
+        {
+            "id": "UNIT OF MEASURE",
+            "values": [
+                "G",
+                "KG",
+                "ML",
+                "CL",
+                "Litre"
+            ]
+        },
+        {
+            "id": "LAUNCH PHASE",
+            "values": [
+                "P01 APR 2022",
+                "P02 MAY 2022",
+                "P03 JUL 2022",
+                "P04 AUG 2022",
+                "P05 SEP 2022",
+                "P06 NOV 2022",
+                "P07 DEC 2022",
+                "P08 JAN 2023",
+                "P09 FEB 2023",
+                "P10 MAR 2023",
+                "P01 APR 2023",
+                "P02 JUN 2023",
+                "P03 SEP 2023",
+                "P04 OCT 2023",
+                "P05 NOV 2023",
+                "P06 DEC 2023",
+                "P07 JAN 2024",
+                "P08 FEB 2024",
+                "P09 MAR 2024",
+                "P01 APR 2024",
+                "P02 MAY 2024",
+                "P03 JUN 2024",
+                "P04 AUG 2024",
+                "P05 SEP 2024",
+                "P06 NOV 2024",
+                "P07 DEC 2024",
+                "P08 DEC 2024",
+                "P09 JAN 2025",
+                "P10 FEB 2025"
+            ]
+        },
+        {
+            "id": "STATUS",
+            "values": [
+                "In Progress",
+                "Go",
+                "No Go",
+                "Hold",
+                "Recycle",
+                "Archived"
+            ]
+        },
+        {
+            "id": "CATEGORY",
+            "values": [
+                "F01C Poultry",
+                "F02F Frozen",
+                "F03C Global Meal Solutions",
+                "F04C Delicatessen",
+                "F05C Cook",
+                "F06C Dairy",
+                "F07C Food onthe Move",
+                "F08C Desserts",
+                "F09A Bakery",
+                "F10A Biscuits",
+                "F11C Deli Counters",
+                "F12A Savoury Snacks",
+                "F13A Confectionery",
+                "F14A Flowers &amp; Plants",
+                "F15C Vegetables",
+                "F16C Salads",
+                "F17C LittleShop&amp;LittleGarden",
+                "F18A Direct Hampers",
+                "F19A Groceries",
+                "F20A Wines",
+                "F21A Beers &amp; Spirits",
+                "F22A Soft Drinks",
+                "F23A Direct Wines",
+                "F24C Spare 5",
+                "F25C Pick And Mix Raw",
+                "F27A In Store Bakery",
+                "F30C Juice",
+                "F32A Cards and Wrap",
+                "F33A Ambient Celebration",
+                "F34A Direct Mag Subscriptions",
+                "F35A Homecare",
+                "F36A Beauty Products",
+                "F38C Meat",
+                "F39A Store Hampers",
+                "F44A Direct Flowers",
+                "F57A DEPOSITS",
+                "F58A H.C. DEL CHARGE",
+                "F59A GROCERY GIFTS",
+                "F60C Vended Coffee",
+                "F61C Fruit",
+                "F62C Fish",
+                "F63C Traditional Meal Sol",
+                "F64C Healthy Meal Solutions",
+                "F65C Spare 1",
+                "F66A Food Gifts",
+                "F67C Prepared Veg",
+                "F68C Spare 2",
+                "F69C Spare 3",
+                "F70A Coffee to Go",
+                "F71A TEST DEPT",
+                "F73C Chilled To Frozen",
+                "F74A Other 1",
+                "F75A Cafes",
+                "F76A Other 3",
+                "F77A Other 2",
+                "F78A Newspapers",
+                "F79A Spare 4",
+                "F80A PLAN ADJUSTMENT",
+                "F81A New Initiatives 2",
+                "F82A New Initiatives 3",
+                "F83A Concessions",
+                "F84C New Initiatives 5",
+                "F85C New Initiatives 7",
+                "F86A Marketing Initiatives",
+                "F87C Eateries",
+                "F88A Bags For Life",
+                "F89C Other Market Place",
+                "F90C Core Market Place",
+                "F91A TICKET/SHOWCARD",
+                "F93A Reduced Sales",
+                "F95A EXCEPTION PRODS",
+                "F96A TASTING SAMPLES",
+                "F98A Wrappers"
+            ]
+        },
+        {
+            "id": "PRODUCT TYPE",
+            "values": [
+                "Branded",
+                "M&amp;S Own Label"
+            ]
+        },
+        {
+            "id": "PROJECT TYPE",
+            "values": [
+                "Rolling",
+                "Standard NPD"
+            ]
+        },
+        {
+            "id": "CLUSTER",
+            "values": [
+                "Ambient Food",
+                "Ambient Non-Food",
+                "Convenience",
+                "FOPA",
+                "Hospitality",
+                "Non Trading",
+                "Other Trading",
+                "Produce, Horti &amp; Frozen",
+                "Protein, Deli &amp; Bakery"
+            ]
+        },
+        {
+            "id": "PRODUCT STAGE",
+            "values": [
+                "Draft",
+                "Creative Stage",
+                "Post-Creative Gate",
+                "Finalise Stage",
+                "Post-Finalise Gate"
+            ]
+        },
+        {
+            "id": "PROJECT STATUS ROLLING",
+            "values": [
+                "Active",
+                "Archived"
+            ]
+        },
+        {
+            "id": "PROJECT STATUS STANDARD NPD",
+            "values": [
+                "Draft",
+                "Creative Stage",
+                "Post-Creative Gate",
+                "Finalise Stage",
+                "Post-Finalise Gate",
+                "Archived"
+            ]
+        },
+        {
+            "id": "PAL PAGE ROLE RESTRICTION",
+            "mapValues": [
+                {
+                    "page": "commercialTab",
+                    "roles": [
+                        "ashbury",
+                        "commercialPlanner",
+                        "gsp",
+                        "supplier",
+                        "palImplantSupplier"
+                    ]
+                }
+            ]
+        },
+        {
+            "id": "REASONS FOR CHANGE",
+            "values": [
+                "New",
+                "New Event",
+                "Size Variant",
+                "Upgrade",
+                "Representation",
+                "Reintroduction",
+                "New Supplier",
+                "New selling channel",
+                "Minor amends",
+                "Raw Material - Existing",
+                "Child File",
+                "Child File",
+                "Raw Material - New",
+                "Ghost - New",
+                "Ghost - Existing",
+                "Super Ghost - New",
+                "Super Ghost - Existing"
+            ]
+        }
+    ],
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "id": "Standard",
+            "templateName": "Standard"
+        },
+        {
+            "id": "CFTO_FTO",
+            "templateName": "CFTO_FTO"
+        },
+        {
+            "id": "ISB",
+            "templateName": "ISB"
+        },
+        {
+            "id": "Hospitality",
+            "templateName": "Hospitality"
+        },
+        {
+            "id": "Horti.com",
+            "templateName": "Horti.com"
+        },
+        {
+            "id": "Wines",
+            "templateName": "Wines"
+        },
+        {
+            "id": "Horti Stores",
+            "templateName": "Horti Stores"
+        },
+        {
+            "id": "Hampers",
+            "templateName": "Hampers"
+        }
+    ],
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>["654fd403-b97b-4cfe-9ba1-78f14c302b9e"]</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "654fd403-b97b-4cfe-9ba1-78f14c302b9e": [
+            {
+                "id": "82b7a9de-7538-4c2d-9ab7-89803a438f14",
+                "name": "Biradavolu, Vivekananda",
+                "email": "vivekananda.biradavolu@marks-and-spencer.com",
+                "fullName": "vivekananda.biradavolu"
+            },
+            {
+                "id": "def18459-d4da-48ae-8773-3e2e0206ff6e",
+                "name": "Manning, Colin",
+                "email": "colin.d.manning@marks-and-spencer.com",
+                "fullName": "colin.d.manning"
+            },
+            {
+                "id": "00e5b192-9bb8-487b-8e18-489bdf2d048d",
+                "name": "Wheeler, Alice",
+                "email": "alice.wheeler@marks-and-spencer.com",
+                "fullName": "alice.wheeler"
+            },
+            {
+                "id": "f0afec2a-4b34-4f05-83d2-ba6fb3e1fd9d",
+                "name": "Harmer, Jasneet",
+                "email": "jasneet.harmer@marks-and-spencer.com",
+                "fullName": "jasneet.harmer"
+            },
+            {
+                "id": "747f4a0b-b567-4ea4-a91c-801255b0a0bc",
+                "name": "Ow, Caroline",
+                "email": "caroline.ow@marks-and-spencer.com",
+                "fullName": "caroline.ow"
+            },
+            {
+                "id": "c3b8bfd3-c126-483a-950d-c73255be3663",
+                "name": "Zoe Kendrick",
+                "email": "zoe.kendrick@marks-and-spencer.com",
+                "fullName": "zoe.kendrick"
+            },
+            {
+                "id": "14b7413a-f8b7-4e85-9ecf-a64a0c9581ed",
+                "name": "Beeston, Georgia",
+                "email": "georgia.beeston@marks-and-spencer.com",
+                "fullName": "georgia.beeston"
+            },
+            {
+                "id": "b1377f59-33d1-4f19-87e4-bab4c823ece4",
+                "name": "Lambert, Zoë",
+                "email": "zoe.lambert@marks-and-spencer.com",
+                "fullName": "zoe.lambert"
+            },
+            {
+                "id": "775478ea-2523-42a4-8ba1-25b2c958d3bf",
+                "name": "Walker, Jennifer",
+                "email": "jennifer.walker@marks-and-spencer.com",
+                "fullName": "jennifer.walker"
+            },
+            {
+                "id": "698e7a28-d591-4eb2-a937-4717e1d6a972",
+                "name": "OFP Automation Test User5",
+                "email": "y5806540@marks-and-spencer.com",
+                "fullName": "y5806540"
+            },
+            {
+                "id": "dcaf7f1c-df44-476c-a8b4-590e2eda1767",
+                "name": "Shanbhag, Vivek",
+                "email": "vivek.shanbhag@marks-and-spencer.com",
+                "fullName": "vivek.shanbhag"
+            },
+            {
+                "id": "0a7498ef-1bf1-43ae-8015-56e8e714e78a",
+                "name": "Hawker, Sophie",
+                "email": "sophie.hawker@marks-and-spencer.com",
+                "fullName": "sophie.hawker"
+            },
+            {
+                "id": "eba36d16-070b-46ec-8835-aa06d42cd695",
+                "name": "Koppuravuri, Surya Nataraj",
+                "email": "suryanataraj.koppuravuri@marks-and-spencer.com",
+                "fullName": "suryanataraj.koppuravuri"
+            },
+            {
+                "id": "b671d3f1-1572-46e5-ac34-ed69308a976c",
+                "name": "Smith, Charlotte",
+                "email": "charlotte.y.smith@marks-and-spencer.com",
+                "fullName": "charlotte.y.smith"
+            },
+            {
+                "id": "265e0ab3-af9e-4a23-928c-076c3b421373",
+                "name": "Kenyon, Hannah",
+                "email": "hannah.kenyon@marks-and-spencer.com",
+                "fullName": "hannah.kenyon"
+            },
+            {
+                "id": "db29c25c-582a-4502-ac59-94e997d7605c",
+                "name": "Chundayil Mohammed, Manzoor",
+                "email": "manzoor.chundayilmohammed@marks-and-spencer.com",
+                "fullName": "manzoor.chundayilmohammed"
+            },
+            {
+                "id": "9d09c272-5155-40a5-9592-78092a615beb",
+                "name": "S, Sinduja",
+                "email": "sinduja.s@marks-and-spencer.com",
+                "fullName": "sinduja.s"
+            },
+            {
+                "id": "6bebbb47-c972-4c22-b01d-dc63c56ab8b5",
+                "name": "Chauhan, Smriti",
+                "email": "smriti.chauhan@marks-and-spencer.com",
+                "fullName": "smriti.chauhan"
+            }
+        ]
+    },
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>{"projectId":"639c2e23a37d7f0967a18792","userRole":"projectManager"}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "supplierId": "F06257",
+            "attributeId": "cb7bb77a-b25f-4d6f-8e4c-d225537f34c0",
+            "supplierName": "Walkers Bakery"
+        },
+        {
+            "supplierId": "F02489",
+            "attributeId": "3ccb4746-0537-447f-b7e0-9a161fe907cc",
+            "supplierName": "It's All Good Ltd"
+        },
+        {
+            "supplierId": "F07410",
+            "attributeId": "29a3b962-5e05-4cf7-ad9a-dea64b1a66d2",
+            "supplierName": "Ultrapharm Ltd"
+        },
+        {
+            "supplierId": "F01503",
+            "attributeId": "8f8fbb23-38b8-4eae-af19-ee0ddf190957",
+            "supplierName": "At Source Handmade Foods Pty (Ltd)"
+        },
+        {
+            "supplierId": "F06219",
+            "attributeId": "6ef0e120-8654-45b6-b7ed-e27c2e4cf745",
+            "supplierName": "Finnebrogue"
+        },
+        {
+            "supplierId": "F02440",
+            "attributeId": "c5f03780-5ff2-4661-95cb-7f3c74325c01",
+            "supplierName": "Pilgrims Pride Ltd  BROMBOROUGH"
+        },
+        {
+            "supplierId": "F01901",
+            "attributeId": "6cfa6a83-0664-43af-90b3-2a3acb5c0152",
+            "supplierName": "BAKKAVOR SALADS TILMANSTONE"
+        },
+        {
+            "supplierId": "F01501",
+            "attributeId": "3c55777f-8e69-4fdd-9c80-1df60a80139d",
+            "supplierName": "Avana Bakeries"
+        },
+        {
+            "supplierId": "F02163",
+            "attributeId": "73c4d06e-bf9b-4190-bdb7-4b18d00ed1a0",
+            "supplierName": "COGNOS"
+        },
+        {
+            "supplierId": "F01514",
+            "attributeId": "ed0ff4cd-3454-4547-aceb-7e13ba3270ea",
+            "supplierName": "Winterbotham Darby"
+        },
+        {
+            "supplierId": "F03708",
+            "attributeId": "8c459951-464f-412b-9ae8-8fa52b612b88",
+            "supplierName": "Walkers Choc Ltd"
+        },
+        {
+            "supplierId": "F01714",
+            "attributeId": "cd62c45e-07c3-488c-aee1-9240318b1f09",
+            "supplierName": "Muller Milk &amp; Ingredients"
+        },
+        {
+            "supplierId": "F04953",
+            "attributeId": "4516e73a-e066-4364-bec3-cc9160fdb11a",
+            "supplierName": "ARYZTA Bakeries Ireland"
+        },
+        {
+            "supplierId": "F05103",
+            "attributeId": "295f0cc6-ab27-4f84-8e24-cb8ed515df97",
+            "supplierName": "McCambridge Unlimited company"
+        },
+        {
+            "supplierId": "F06574",
+            "attributeId": "af16ea87-4642-4884-8bea-23ac491554da",
+            "supplierName": "Hatch Brothers Limited"
+        },
+        {
+            "supplierId": "F04310",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "THE SILVER SPOON CO."
+        },
+        {
+            "supplierId": "F06171",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "YEO VALLEY"
+        },
+        {
+            "supplierId": "F01584",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "2SFG Cambuslang"
+        },
+        {
+            "supplierId": "F01594",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Moy Park Ballymena"
+        },
+        {
+            "supplierId": "F01752",
+            "attributeId": "7441e69c-9a1a-4147-88de-76a77a25ef50",
+            "supplierName": "BAKKAVOR SPLADING"
+        },
+        {
+            "supplierId": "F01844",
+            "attributeId": "66155a05-aa1e-474e-add9-155450f1625c",
+            "supplierName": "BAKKAVOR SALADS BO'NESS"
+        },
+        {
+            "supplierId": "F06330",
+            "attributeId": "481da2a9-5707-4740-887a-a15f3fb0640b",
+            "supplierName": "BAKKAVOR MEALS BOSTON"
+        },
+        {
+            "supplierId": "F05091",
+            "attributeId": "c5894ebc-f6f4-4573-9477-d1f91786698c",
+            "supplierName": "Thistle Seafoods Limited"
+        },
+        {
+            "supplierId": "F03606",
+            "attributeId": "8969cd88-9d62-4821-8287-e97115bded7a",
+            "supplierName": "Lossie Seafoods Ltd."
+        },
+        {
+            "supplierId": "F07399",
+            "attributeId": "b9f350fd-ce87-462e-96e8-df2789da6653",
+            "supplierName": "2 Sisters Thetford"
+        },
+        {
+            "supplierId": "F01606",
+            "attributeId": "6f0f7cb2-f9d3-44b7-9676-787b921bbedd",
+            "supplierName": "2SFG Flixton"
+        },
+        {
+            "supplierId": "F01530",
+            "attributeId": "bc747106-1640-4324-b2dc-f7cfd6dccbc6",
+            "supplierName": "CAVAGHAN AND GRAY"
+        },
+        {
+            "supplierId": "F01524",
+            "attributeId": "e8cf3e98-f115-4ee5-aecc-d5c39336ba02",
+            "supplierName": "R F BROOKES LTD"
+        },
+        {
+            "supplierId": "F06117",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "LINDEN FOODS LTD"
+        },
+        {
+            "supplierId": "F01950",
+            "attributeId": "81575cac-1f3f-4880-894d-b9ea7fcfd299",
+            "supplierName": "AM Fresh UK Limited"
+        },
+        {
+            "supplierId": "F01974",
+            "attributeId": "f88c36dd-aa74-4591-bc4c-76954d79c32e",
+            "supplierName": "Gunstones 2SFG"
+        },
+        {
+            "supplierId": "F01946",
+            "attributeId": "b9064019-6d50-4399-8250-f64a0a845efd",
+            "supplierName": "KINNERTON"
+        },
+        {
+            "supplierId": "F06415",
+            "attributeId": "33f836fe-e451-478b-abde-d4d65b6855c3",
+            "supplierName": "ARTISAN DU CHOCOLAT"
+        },
+        {
+            "supplierId": "F04611",
+            "attributeId": "a3357839-b363-4a53-bfcf-5054eb2447c5",
+            "supplierName": "Fox's Biscuits Ltd"
+        },
+        {
+            "supplierId": "F04102",
+            "attributeId": "46af143c-7284-43e5-a53f-3381ba2edb87",
+            "supplierName": "Arden Foods"
+        },
+        {
+            "supplierId": "F03854",
+            "attributeId": "b9ea123a-b767-423b-a949-5e7bc39006c2",
+            "supplierName": "BerryWorld LTD T/A PrepWorld"
+        },
+        {
+            "supplierId": "F03954",
+            "attributeId": "e61e1ba8-dff6-4039-8cfe-4d6afac2a2ce",
+            "supplierName": "Bio-tiful Dairy"
+        },
+        {
+            "supplierId": "F03997",
+            "attributeId": "fa18a9be-dc28-4781-b8e6-c63146c06ed2",
+            "supplierName": "Larex AB"
+        },
+        {
+            "supplierId": "F06286",
+            "attributeId": "3a073fed-9cc4-465b-a69f-fb508ff7056a",
+            "supplierName": "BAKKAVOR DESSERTS NEWARK"
+        },
+        {
+            "supplierId": "F06099",
+            "attributeId": "6e85ee50-eb34-43f8-a69c-1aef45e7bf31",
+            "supplierName": "BAKKAVOR DESSERTS DEVIZES"
+        },
+        {
+            "supplierId": "F06165",
+            "attributeId": "2310a544-82e9-48a0-b8f6-8d3c60eaf6b1",
+            "supplierName": "Les Grands Chais de France."
+        },
+        {
+            "supplierId": "F04809",
+            "attributeId": "b77b90ff-0971-467e-92f5-5911b0d7b6fe",
+            "supplierName": "VINUM Ltd"
+        },
+        {
+            "supplierId": "F06546",
+            "attributeId": "7d2719c0-7632-4c19-b318-128382bab19f",
+            "supplierName": "ADNAMS PLC"
+        },
+        {
+            "supplierId": "F01546",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Cranswick Yorkshire Bakery"
+        },
+        {
+            "supplierId": "F06341",
+            "attributeId": "01d8b0ee-5820-485f-b28d-bb3c4c8d588c",
+            "supplierName": "MM FLOWERS LTD"
+        },
+        {
+            "supplierId": "F09999",
+            "attributeId": "0a83bfcd-f107-4d42-9cf3-8c44a2e7661f",
+            "supplierName": "Vouchers Dummy Vendor"
+        },
+        {
+            "supplierId": "F03960",
+            "attributeId": "e81461ad-2df8-4640-9d54-85b4ca78e965",
+            "supplierName": "Tigerprint"
+        },
+        {
+            "supplierId": "F03143",
+            "attributeId": "1295f726-747b-4179-9f72-c7765922351e",
+            "supplierName": "Muller Milk &amp; Ingredients"
+        },
+        {
+            "supplierId": "F06223",
+            "attributeId": "959c1ed4-695f-4c5a-953c-381ff0beedb6",
+            "supplierName": "Abergavenny Fine Foods"
+        },
+        {
+            "supplierId": "F03141",
+            "attributeId": "5f2c0908-56f7-4dad-bc8c-81162ad13077",
+            "supplierName": "Ballyrashane Creamery."
+        },
+        {
+            "supplierId": "F01512",
+            "attributeId": "53927ab6-0998-4b01-8614-76c38686aee1",
+            "supplierName": "OLITALIA"
+        },
+        {
+            "supplierId": "F01521",
+            "attributeId": "e47a54bd-09b9-4b37-9c0c-b42cfaa60aff",
+            "supplierName": "Vinaoliva"
+        },
+        {
+            "supplierId": "F02104",
+            "attributeId": "61ca599e-1b6d-4ac5-9cab-3be0924dbf9c",
+            "supplierName": "Seckford Agencies Ltd"
+        },
+        {
+            "supplierId": "F01661",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "QUINTA AND VINEYARD"
+        },
+        {
+            "supplierId": "F04440",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "E I WINES Ltd"
+        },
+        {
+            "supplierId": "F04757",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "CASTEL-FRERES"
+        },
+        {
+            "supplierId": "F04826",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Brands Direct"
+        },
+        {
+            "supplierId": "F06335",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Negociants International"
+        },
+        {
+            "supplierId": "F06525",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "ENOTRIA WINECELLARS LTD"
+        },
+        {
+            "supplierId": "F06538",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Long Clawson Dairy Ltd"
+        },
+        {
+            "supplierId": "FoodForensics",
+            "attributeId": "da02d5df-977d-4e5e-8f1d-0ef49bf6fbf8",
+            "supplierName": null
+        },
+        {
+            "supplierId": "SGS",
+            "attributeId": "841e0df4-d1f5-48ea-87f1-5451dd67127a",
+            "supplierName": null
+        },
+        {
+            "supplierId": "F07204",
+            "attributeId": "9b27805b-ef1c-4a95-9ed7-4b2ca723a763",
+            "supplierName": "Marks &amp; Spencer Eat In"
+        },
+        {
+            "supplierId": "F06135",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Bibendum Off Trade Ltd"
+        },
+        {
+            "supplierId": "F04240",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "PAUL SAPIN SA"
+        },
+        {
+            "supplierId": "F06473",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Berkmann Wine Cellars Ltd"
+        },
+        {
+            "supplierId": "F07447",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Vina Indomita S.A."
+        },
+        {
+            "supplierId": "F03548",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": "Hush Heath Estate"
+        },
+        {
+            "supplierId": "F05393",
+            "attributeId": "ab04d1b9-95e7-4d76-af21-4cb43719dd8c",
+            "supplierName": null
+        },
+        {
+            "supplierId": "F01516",
+            "attributeId": null,
+            "supplierName": "PORK FARMS LIMITED"
+        },
+        {
+            "supplierId": "F04319",
+            "attributeId": null,
+            "supplierName": "Epicurean Dairy"
+        },
+        {
+            "supplierId": "F04735",
+            "attributeId": null,
+            "supplierName": "ABTEY CHOCOLATERIE"
+        },
+        {
+            "supplierId": "F05285",
+            "attributeId": null,
+            "supplierName": "Noel Alimentaria SAU"
+        },
+        {
+            "supplierId": "F07402",
+            "attributeId": null,
+            "supplierName": "Bells Food Group"
+        },
+        {
+            "supplierId": "F03009",
+            "attributeId": null,
+            "supplierName": "The Mallow Boutique Ltd"
+        },
+        {
+            "supplierId": "F04813",
+            "attributeId": null,
+            "supplierName": "LUCIEN LURTON &amp; FILS"
+        },
+        {
+            "supplierId": "F05174",
+            "attributeId": null,
+            "supplierName": "AMC NATURAL DRINKS UK LIMITED"
+        },
+        {
+            "supplierId": "F05490",
+            "attributeId": null,
+            "supplierName": "EUROPASTRY UK LTD"
+        },
+        {
+            "supplierId": "F07420",
+            "attributeId": null,
+            "supplierName": "S.A.E.G.B (Boudier)"
+        },
+        {
+            "supplierId": "F04539",
+            "attributeId": null,
+            "supplierName": "Soreen Gibbs Croft"
+        },
+        {
+            "supplierId": "F06433",
+            "attributeId": null,
+            "supplierName": "The Lane Wine Co PTY LTD"
+        },
+        {
+            "supplierId": "F06420",
+            "attributeId": null,
+            "supplierName": "INTELIPAC LEUMI ABL LTD"
+        },
+        {
+            "supplierId": "F02922",
+            "attributeId": null,
+            "supplierName": "Australian Vintage Ltd"
+        },
+        {
+            "supplierId": "F06537",
+            "attributeId": null,
+            "supplierName": "FIRST DROP WINES PTY LTD"
+        },
+        {
+            "supplierId": "F04940",
+            "attributeId": null,
+            "supplierName": "McWilliams Wine Group"
+        },
+        {
+            "supplierId": "F04871",
+            "attributeId": null,
+            "supplierName": "LEES OF SCOTLAND LTD"
+        },
+        {
+            "supplierId": "F05169",
+            "attributeId": null,
+            "supplierName": "TRIP DRINK LTD"
+        },
+        {
+            "supplierId": "F06466",
+            "attributeId": null,
+            "supplierName": "THE VILLAGE BAKERY (WREXHAM) LTD"
+        },
+        {
+            "supplierId": "F06485",
+            "attributeId": null,
+            "supplierName": "BAKKAVOR DESSERTS LEICESTER"
+        },
+        {
+            "supplierId": "F07400",
+            "attributeId": null,
+            "supplierName": "Fresh Herbs Uk Ltd"
+        },
+        {
+            "supplierId": "F04579",
+            "attributeId": null,
+            "supplierName": "Ysco nv"
+        },
+        {
+            "supplierId": "F04191",
+            "attributeId": null,
+            "supplierName": "UNION CHAMPAGNE"
+        },
+        {
+            "supplierId": "F07205",
+            "attributeId": null,
+            "supplierName": "M&amp;S Small Wine Suppliers"
+        },
+        {
+            "supplierId": "F02576",
+            "attributeId": null,
+            "supplierName": "Hot Irishman"
+        },
+        {
+            "supplierId": "F06082",
+            "attributeId": null,
+            "supplierName": "JOHN MENZIES DISTRIBUTION LTD"
+        },
+        {
+            "supplierId": "F06205",
+            "attributeId": null,
+            "supplierName": "APS Produce Ltd"
+        },
+        {
+            "supplierId": "F04784",
+            "attributeId": null,
+            "supplierName": "RED DEER HERBS LTD"
+        },
+        {
+            "supplierId": "F04841",
+            "attributeId": null,
+            "supplierName": "JEYES LTD"
+        },
+        {
+            "supplierId": "F02743",
+            "attributeId": null,
+            "supplierName": "inSpiral Visionary Products Ltd"
+        },
+        {
+            "supplierId": "F01816",
+            "attributeId": null,
+            "supplierName": "G'S MARKETING"
+        },
+        {
+            "supplierId": "F04174",
+            "attributeId": null,
+            "supplierName": "Warburtons Ltd"
+        },
+        {
+            "supplierId": "F04438",
+            "attributeId": null,
+            "supplierName": "Maitre Prunille SAS"
+        },
+        {
+            "supplierId": "F06452",
+            "attributeId": null,
+            "supplierName": "Signature Flatbreads UK LTD"
+        },
+        {
+            "supplierId": "F06419",
+            "attributeId": null,
+            "supplierName": "Whitworths Ltd"
+        },
+        {
+            "supplierId": "F04482",
+            "attributeId": null,
+            "supplierName": "SAVENCIA FROMAGE &amp; DAIRY UK LTD"
+        },
+        {
+            "supplierId": "F02056",
+            "attributeId": null,
+            "supplierName": "USP Healthcare Ltd"
+        },
+        {
+            "supplierId": "F06180",
+            "attributeId": null,
+            "supplierName": "AWIN BARRATT"
+        },
+        {
+            "supplierId": "F06216",
+            "attributeId": null,
+            "supplierName": "CHAMPAGNE DUVAL LEROY SA"
+        },
+        {
+            "supplierId": "F02461",
+            "attributeId": null,
+            "supplierName": "Te Awanga Estate Ltd"
+        },
+        {
+            "supplierId": "F02937",
+            "attributeId": null,
+            "supplierName": "Scottish Shellfish Marketing Group"
+        },
+        {
+            "supplierId": "F02377",
+            "attributeId": null,
+            "supplierName": "Symingtons Ltd t/a Millerdale"
+        },
+        {
+            "supplierId": "F05214",
+            "attributeId": null,
+            "supplierName": "Royal Sanders (UK) Limited"
+        },
+        {
+            "supplierId": "F06484",
+            "attributeId": null,
+            "supplierName": "Daniels Group"
+        },
+        {
+            "supplierId": "F05133",
+            "attributeId": null,
+            "supplierName": "Damm 1876 Ltd"
+        },
+        {
+            "supplierId": "F02123",
+            "attributeId": null,
+            "supplierName": "JLM GLOBAL FOODS LTD"
+        },
+        {
+            "supplierId": "F06380",
+            "attributeId": null,
+            "supplierName": "IRISH DOGS FOOD"
+        },
+        {
+            "supplierId": "F01853",
+            "attributeId": null,
+            "supplierName": "GODIVA BELGIUM S.A."
+        },
+        {
+            "supplierId": "F06156",
+            "attributeId": null,
+            "supplierName": "CHEPSTOW CON C1"
+        },
+        {
+            "supplierId": "F06460",
+            "attributeId": null,
+            "supplierName": "The Baked Snacks Company Ltd"
+        },
+        {
+            "supplierId": "F04883",
+            "attributeId": null,
+            "supplierName": "COOLEY DISTILLERY PLC"
+        },
+        {
+            "supplierId": "F06540",
+            "attributeId": null,
+            "supplierName": "Sociedade Vitivinicola Dos Lusiadas"
+        },
+        {
+            "supplierId": "F06492",
+            "attributeId": null,
+            "supplierName": "Pork Farms Ltd - Shaftesbury"
+        },
+        {
+            "supplierId": "F04819",
+            "attributeId": null,
+            "supplierName": "Total Produce Swords"
+        },
+        {
+            "supplierId": "F04197",
+            "attributeId": null,
+            "supplierName": "Dalter Group"
+        },
+        {
+            "supplierId": "F06311",
+            "attributeId": null,
+            "supplierName": "Thatchers Cider"
+        },
+        {
+            "supplierId": "F01870",
+            "attributeId": null,
+            "supplierName": "BRITVIC SOFT DRINKS LTD."
+        },
+        {
+            "supplierId": "F03023",
+            "attributeId": null,
+            "supplierName": "Cape Point Vineyards"
+        },
+        {
+            "supplierId": "F03561",
+            "attributeId": null,
+            "supplierName": "Brinkers Food B.V."
+        },
+        {
+            "supplierId": "F04408",
+            "attributeId": null,
+            "supplierName": "TAYLORS OF HARROGATE"
+        },
+        {
+            "supplierId": "F06305",
+            "attributeId": null,
+            "supplierName": "MATTHEW WALKER"
+        },
+        {
+            "supplierId": "F01010",
+            "attributeId": null,
+            "supplierName": "TEST6"
+        },
+        {
+            "supplierId": "F05224",
+            "attributeId": null,
+            "supplierName": "Nairns Oatcakes Limited"
+        },
+        {
+            "supplierId": "F01540",
+            "attributeId": null,
+            "supplierName": "Fentimans Ltd"
+        },
+        {
+            "supplierId": "F04119",
+            "attributeId": null,
+            "supplierName": "Lactalis"
+        },
+        {
+            "supplierId": "F06254",
+            "attributeId": null,
+            "supplierName": "GP WINERY GmbH"
+        },
+        {
+            "supplierId": "F03006",
+            "attributeId": null,
+            "supplierName": "North South Wines"
+        },
+        {
+            "supplierId": "F04768",
+            "attributeId": null,
+            "supplierName": "ROBERT MCBRIDE LTD"
+        },
+        {
+            "supplierId": "F04448",
+            "attributeId": null,
+            "supplierName": "Lili Ott S.L."
+        },
+        {
+            "supplierId": "F06299",
+            "attributeId": null,
+            "supplierName": "Solina UK Trading Ltd"
+        },
+        {
+            "supplierId": "F03564",
+            "attributeId": null,
+            "supplierName": "Symingtons Consett"
+        },
+        {
+            "supplierId": "F03209",
+            "attributeId": null,
+            "supplierName": "Peninsula Vinicultores  S.L."
+        },
+        {
+            "supplierId": "F05061",
+            "attributeId": null,
+            "supplierName": "Test1"
+        },
+        {
+            "supplierId": "F03000",
+            "attributeId": null,
+            "supplierName": "2SFG Red Meat (St Merryn)"
+        },
+        {
+            "supplierId": "F04930",
+            "attributeId": null,
+            "supplierName": "Cocoba Limited"
+        },
+        {
+            "supplierId": "F06531",
+            "attributeId": null,
+            "supplierName": "GRIESSON DE BEUKELAER"
+        },
+        {
+            "supplierId": "F04963",
+            "attributeId": null,
+            "supplierName": "TCFG Naas Limited"
+        },
+        {
+            "supplierId": "F06368",
+            "attributeId": null,
+            "supplierName": "CRUSH WINES LTD"
+        },
+        {
+            "supplierId": "F01667",
+            "attributeId": null,
+            "supplierName": "AG BARR PLC"
+        },
+        {
+            "supplierId": "F05375",
+            "attributeId": null,
+            "supplierName": "Vinca Wine Ltd"
+        },
+        {
+            "supplierId": "F04475",
+            "attributeId": null,
+            "supplierName": "Brownings The Bakers Ltd"
+        },
+        {
+            "supplierId": "F06474",
+            "attributeId": null,
+            "supplierName": "Myliko International (Wines) Ltd."
+        },
+        {
+            "supplierId": "F02866",
+            "attributeId": null,
+            "supplierName": "The Islander Estate Vineyards"
+        },
+        {
+            "supplierId": "F04165",
+            "attributeId": null,
+            "supplierName": "CONRAD SCHULTE GMBH"
+        },
+        {
+            "supplierId": "F06316",
+            "attributeId": null,
+            "supplierName": "Greencore Selby"
+        },
+        {
+            "supplierId": "F06423",
+            "attributeId": null,
+            "supplierName": "Santa Teresa"
+        },
+        {
+            "supplierId": "F04248",
+            "attributeId": null,
+            "supplierName": "Kerry Foods Ltd"
+        },
+        {
+            "supplierId": "F07423",
+            "attributeId": null,
+            "supplierName": "Ian Macleods Distillers"
+        },
+        {
+            "supplierId": "F04293",
+            "attributeId": null,
+            "supplierName": "LE CEP FRANCAIS"
+        },
+        {
+            "supplierId": "F06229",
+            "attributeId": null,
+            "supplierName": "VINA SAN PEDRO TARAPACA S.A."
+        },
+        {
+            "supplierId": "F06204",
+            "attributeId": null,
+            "supplierName": "APAC PACKAGING LTD"
+        },
+        {
+            "supplierId": "F04003",
+            "attributeId": null,
+            "supplierName": "KP Snacks Limited"
+        },
+        {
+            "supplierId": "F04272",
+            "attributeId": null,
+            "supplierName": "ACKERMAN LAURANCE"
+        },
+        {
+            "supplierId": "F02245",
+            "attributeId": null,
+            "supplierName": "Accents &amp; Terroirs"
+        },
+        {
+            "supplierId": "F02175",
+            "attributeId": null,
+            "supplierName": "Union Blasons de Bourgogne"
+        },
+        {
+            "supplierId": "F06141",
+            "attributeId": null,
+            "supplierName": "DE BORTOLI WINES PTY LTD"
+        },
+        {
+            "supplierId": "F04402",
+            "attributeId": null,
+            "supplierName": "CTG Fine Foods Ltd."
+        },
+        {
+            "supplierId": "F04321",
+            "attributeId": null,
+            "supplierName": "Purple Chameleon"
+        },
+        {
+            "supplierId": "F04775",
+            "attributeId": null,
+            "supplierName": "H&amp;A PRESTIGE PACKING CO. LTD"
+        },
+        {
+            "supplierId": "F04352",
+            "attributeId": null,
+            "supplierName": "Rina Eurpoe s.r.o"
+        },
+        {
+            "supplierId": "F06488",
+            "attributeId": null,
+            "supplierName": "SCA Packaging"
+        },
+        {
+            "supplierId": "F02248",
+            "attributeId": null,
+            "supplierName": "SARL Chateau de Flaugergues"
+        },
+        {
+            "supplierId": "F07438",
+            "attributeId": null,
+            "supplierName": "Barry Callebaut Iberica SL"
+        },
+        {
+            "supplierId": "F06530",
+            "attributeId": null,
+            "supplierName": "Saor Italia SRL"
+        },
+        {
+            "supplierId": "F02940",
+            "attributeId": null,
+            "supplierName": "Caves de Pouilly sur Loire"
+        },
+        {
+            "supplierId": "F06562",
+            "attributeId": null,
+            "supplierName": "Luis Caballero Comercial y Distrbuc"
+        },
+        {
+            "supplierId": "F04445",
+            "attributeId": null,
+            "supplierName": "R F BROOKES"
+        },
+        {
+            "supplierId": "F06512",
+            "attributeId": null,
+            "supplierName": "Braces Bakery"
+        },
+        {
+            "supplierId": "F04846",
+            "attributeId": null,
+            "supplierName": "MATTHEW ALGIE &amp; CO LTD"
+        },
+        {
+            "supplierId": "F06478",
+            "attributeId": null,
+            "supplierName": "Peregrine Wines Central Otago LTD"
+        },
+        {
+            "supplierId": "F02145",
+            "attributeId": null,
+            "supplierName": "Rowe Farming Ltd"
+        },
+        {
+            "supplierId": "F01815",
+            "attributeId": null,
+            "supplierName": "J O SIMS LTD"
+        },
+        {
+            "supplierId": "F06445",
+            "attributeId": null,
+            "supplierName": "MOUNT EDWARD WINERY"
+        },
+        {
+            "supplierId": "F02927",
+            "attributeId": null,
+            "supplierName": "Mackays Ltd"
+        },
+        {
+            "supplierId": "F02252",
+            "attributeId": null,
+            "supplierName": "SCV Caramany"
+        },
+        {
+            "supplierId": "F02412",
+            "attributeId": null,
+            "supplierName": "Mathiesons Bakery Ltd"
+        },
+        {
+            "supplierId": "F06532",
+            "attributeId": null,
+            "supplierName": "Kellys Of Cornwall Limited"
+        },
+        {
+            "supplierId": "F03501",
+            "attributeId": null,
+            "supplierName": "AEGEAN HERITAGE FOODS LTD"
+        },
+        {
+            "supplierId": "F02806",
+            "attributeId": null,
+            "supplierName": "Pralibel"
+        },
+        {
+            "supplierId": "F04389",
+            "attributeId": null,
+            "supplierName": "Delica AG"
+        },
+        {
+            "supplierId": "F04727",
+            "attributeId": null,
+            "supplierName": "Brown Bros Manufacturing Ltd"
+        },
+        {
+            "supplierId": "F04927",
+            "attributeId": null,
+            "supplierName": "Scribbler Holdings Ltd"
+        },
+        {
+            "supplierId": "F02541",
+            "attributeId": null,
+            "supplierName": "Alfresco Drinks Limited"
+        },
+        {
+            "supplierId": "F02379",
+            "attributeId": null,
+            "supplierName": "Champagne Martel"
+        },
+        {
+            "supplierId": "F04839",
+            "attributeId": null,
+            "supplierName": "BUITEMAN B.V."
+        },
+        {
+            "supplierId": "F02045",
+            "attributeId": null,
+            "supplierName": "BARFOOTS &amp; RS BAKE"
+        },
+        {
+            "supplierId": "F05364",
+            "attributeId": null,
+            "supplierName": "GARAVOGUE BROGHIES LTD"
+        },
+        {
+            "supplierId": "F01507",
+            "attributeId": null,
+            "supplierName": "Laurent Perrier"
+        },
+        {
+            "supplierId": "F05109",
+            "attributeId": null,
+            "supplierName": "ELKES BISCUITS LTD"
+        },
+        {
+            "supplierId": "F05296",
+            "attributeId": null,
+            "supplierName": "FRATELLI TANZI SPA"
+        },
+        {
+            "supplierId": "F06318",
+            "attributeId": null,
+            "supplierName": "LUDWIG CHOCOLATE LTD"
+        },
+        {
+            "supplierId": "F04505",
+            "attributeId": null,
+            "supplierName": "WX Brands"
+        },
+        {
+            "supplierId": "F04935",
+            "attributeId": null,
+            "supplierName": "BrewDog Plc"
+        },
+        {
+            "supplierId": "F06534",
+            "attributeId": null,
+            "supplierName": "TONKIN PRODUCTS LTD"
+        },
+        {
+            "supplierId": "F01671",
+            "attributeId": null,
+            "supplierName": "Manor Bakeries"
+        },
+        {
+            "supplierId": "F05411",
+            "attributeId": null,
+            "supplierName": "Refresco Beverages UK Ltd NSB"
+        },
+        {
+            "supplierId": "F04886",
+            "attributeId": null,
+            "supplierName": "CHATEAU FAVRAY"
+        },
+        {
+            "supplierId": "F09005",
+            "attributeId": null,
+            "supplierName": "Test RPA Vendor"
+        },
+        {
+            "supplierId": "F06465",
+            "attributeId": null,
+            "supplierName": "SA Maison Alexandre Bonnet"
+        },
+        {
+            "supplierId": "F01111",
+            "attributeId": null,
+            "supplierName": "LAUREN LAUREN"
+        },
+        {
+            "supplierId": "F04732",
+            "attributeId": null,
+            "supplierName": "Leclerc Foods UK Limited"
+        },
+        {
+            "supplierId": "F04329",
+            "attributeId": null,
+            "supplierName": "Billington Food Service"
+        },
+        {
+            "supplierId": "F04443",
+            "attributeId": null,
+            "supplierName": "KTC Edibles Ltd"
+        },
+        {
+            "supplierId": "F03586",
+            "attributeId": null,
+            "supplierName": "Grahams The Family Dairy"
+        },
+        {
+            "supplierId": "F04495",
+            "attributeId": null,
+            "supplierName": "SMITHY MUSHROOMS LTD"
+        },
+        {
+            "supplierId": "F03862",
+            "attributeId": null,
+            "supplierName": "A E Rodda and Sons"
+        },
+        {
+            "supplierId": "F06304",
+            "attributeId": null,
+            "supplierName": "CLAYDENS LIMITED"
+        },
+        {
+            "supplierId": "F06008",
+            "attributeId": null,
+            "supplierName": "ALCONERA UK LTD"
+        },
+        {
+            "supplierId": "F07422",
+            "attributeId": null,
+            "s</t>
+  </si>
+  <si>
+    <t>{"projectId":"64019496044ec404e10c4157","userRole":"projectManager"}</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "id": "64019496044ec404e10c4157",
+        "templateName": "CFTO_FTO",
+        "templateId": "CFTO_FTO",
+        "personnel": {
+            "internal": [
+                {
+                    "role": "projectManager",
+                    "users": [
+                        "deepak.x.sharma@marks-and-spencer.com"
+                    ]
+                },
+                {
+                    "role": "productDeveloper",
+                    "users": []
+                },
+                {
+                    "role": "foodTechnologist",
+                    "users": []
+                },
+                {
+                    "role": "buyer",
+                    "users": [
+                        "nandhakumar.kaliyappan@marks-and-spencer.com"
+                    ]
+                }
+            ]
+        },
+        "information": {
+            "id": "64019496044ec404e10c4157",
+            "projectName": "Project CFTO FTO",
+            "templateId": "CFTO_FTO",
+            "templateName": "CFTO_FTO",
+            "status": "Draft",
+            "projectType": "Standard NPD",
+            "financialYear": "2020-2021",
+            "projectCompletionDate": "2023-03-08T00:00:00",
+            "comments": "",
+            "cluster": "Ambient Non-Food"
+        }
+    },
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>projectId=64019496044ec404e10c4157</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "id": "622b5f839b6e5d3b10be7d42",
+            "objectId": "d16eb3ef-9da2-4ba5-ad79-05c0ac1ba52e",
+            "name": "Food technologist",
+            "role": "foodTechnologist"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d48",
+            "objectId": "2b5a8756-1750-447f-8978-6d5229e5508c",
+            "name": "VAT",
+            "role": "vat"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d43",
+            "objectId": "c544c4e4-7a62-4995-b13e-c62e759166d7",
+            "name": "International",
+            "role": "international"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d44",
+            "objectId": "6310dafd-17c7-4f00-a56b-6db12e5a2b1e",
+            "name": "Commercial Planner",
+            "role": "commercialPlanner"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d40",
+            "objectId": "71dad8df-bf7e-4dbe-be66-ce9c3d7c5af8",
+            "name": "Product Developer",
+            "role": "productDeveloper"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d3f",
+            "objectId": "654fd403-b97b-4cfe-9ba1-78f14c302b9e",
+            "name": "Project Manager",
+            "role": "projectManager"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d41",
+            "objectId": "a0315d39-d00e-4f6e-8c3b-63565057db44",
+            "name": "Buyer",
+            "role": "buyer"
+        },
+        {
+            "id": "622b5f839b6e5d3b10be7d46",
+            "objectId": "02238c79-71ae-4aa0-9b7c-a76f05a59385",
+            "name": "GSP",
+            "role": "gsp"
+        }
+    ],
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>{"userRole":"projectManager","projectId":"657c03263702da16c94b8709"}</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "projectCommercial": [
+            {
+                "label": "Annual Volume (units)",
+                "name": "annualVolumeUnits",
+                "placeholder": "e.g. 3,850",
+                "type": "input",
+                "owner": "buyer",
+                "disabled": true,
+                "creativeGate": false,
+                "mandatory": false,
+                "pattern": "^[0-9]+$",
+                "errorMessages": {
+                    "patternMessage": "Annual Volume (units) can have numerical values only. e.g. 3,850"
+                },
+                "productSetupRequired": false,
+                "editable": [
+                    "buyer"
+                ]
+            },
+            {
+                "label": "Annual Sales of NPD",
+                "name": "annualSalesOfNpd",
+                "placeholder": "£170,000",
+                "type": "input",
+                "owner": "buyer",
+                "disabled": true,
+                "creativeGate": false,
+                "mandatory": false,
+                "pattern": "^[£][0-9]+$",
+                "errorMessages": {
+                    "patternMessage": "Annual Sales of NPD can have numerical values and can include £. e.g. £170,000"
+                },
+                "productSetupRequired": false,
+                "editable": [
+                    "buyer"
+                ]
+            },
+            {
+                "label": "Gross Sales Margin %",
+                "name": "grossSalesMarginPercentage",
+                "placeholder": "e.g. 39%",
+                "type": "input",
+                "owner": "buyer",
+                "disabled": true,
+                "creativeGate": false,
+                "mandatory": false,
+                "pattern": "^[0-9]+[%]$",
+                "errorMessages": {
+                    "patternMessage": "Gross Sales Margin can have numerical values and can include %. e.g. 39%"
+                },
+                "productSetupRequired": false,
+                "editable": [
+                    "buyer"
+                ]
+            },
+            {
+                "label": "Average Selling Price",
+                "name": "averageSellingPrice",
+                "placeholder": "e.g. £1.50",
+                "type": "input",
+                "owner": "buyer",
+                "disabled": true,
+                "creativeGate": false,
+                "mandatory": false,
+                "pattern": "^[£][0-9]*(\\.[0-9]+)?$",
+                "errorMessages": {
+                    "patternMessage": "Average Selling Price can have numerical values and can include £. e.g. £1.50"
+                },
+                "productSetupRequired": false,
+                "editable": [
+                    "buyer"
+                ]
+            },
+            {
+                "label": "Annual Incremental Sales",
+                "name": "annualIncrementalSales",
+                "placeholder": "e.g. £50,000",
+                "type": "input",
+                "owner": "buyer",
+                "disabled": true,
+                "creativeGate": false,
+                "mandatory": false,
+                "pattern": "^[£][0-9]+$",
+                "errorMessages": {
+                    "patternMessage": "Annual Incremental Sales can have numerical values and can include £. e.g. £50,000"
+                },
+                "productSetupRequired": false,
+                "editable": [
+                    "buyer"
+                ]
+            },
+            {
+                "label": "# TOTAL ALL PLACEHOLDERS IN PROJECT",
+                "name": "totalAllPlaceholdersInProject",
+                "placeholder": "e.g. 10",
+                "type": "input",
+                "value": "30",
+                "owner": "projectManager",
+                "disabled": true,
+                "creativeGate": false,
+                "mandatory": true,
+                "pattern": "^[0-9]+$",
+                "errorMessages": {
+                    "patternMessage": "Total all placeholders project can have numerical values only. e.g. 10"
+                },
+                "productSetupRequired": false,
+                "editable": [
+                    "projectManager"
+                ]
+            },
+            {
+                "label": "# TOTAL N/NE/SV PLACEHOLDERS IN PROJECT​",
+                "name": "totalNNESVPlaceholder",
+                "placeholder": "e.g. 5",
+                "type": "input",
+                "owner": "projectManager",
+                "disabled": true,
+                "creativeGate": false,
+                "mandatory": true,
+                "pattern": "^[0-9]+$",
+                "errorMessages": {
+                    "patternMessage": "Total N/NE/SV placeholders in project can have numerical values only. e.g. 5"
+                },
+                "productSetupRequired": false,
+                "editable": [
+                    "projectManager"
+                ]
+            }
+        ]
+    },
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>{"projectId":"657c03263702da16c94b8709","userRole":"projectManager"}</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "id": "657c03263702da16c94b8709",
+        "templateName": "Standard",
+        "templateId": "Standard",
+        "information": {
+            "id": "657c03263702da16c94b8709",
+            "projectName": "24-25 Prepared Veg - UK Potatoes Amend - SGK Use",
+            "templateId": "Standard",
+            "templateName": "Standard",
+            "status": "Archived",
+            "projectType": "Standard NPD",
+            "financialYear": "2023-2024",
+            "projectCompletionDate": "2024-03-29T00:00:00",
+            "comments": "",
+            "cluster": "Convenience",
+            "categories": [
+                "F67C Prepared Veg"
+            ]
+        }
+    },
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>{"projectId":"68c94707b0dd79e14e69395d","userRole":"projectManager","filter":{"status":["In Progress","Go","Recycle"]}}</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "id": "68c94707b0dd79e14e69395d",
+        "templateName": "Standard",
+        "templateId": "Standard",
+        "products": [
+            {
+                "data": {
+                    "productId": "68c94883b0dd79e14e69395e",
+                    "productName": "Made Without Bunny Bar",
+                    "status": "Go",
+                    "upc": "29210817",
+                    "supplierName": "Moo Free Ltd",
+                    "supplierCode": "F04187",
+                    "weight": "18 G",
+                    "category": "F33A Ambient Celebration",
+                    "productFileType": "Standard",
+                    "percentage": 66,
+                    "subRange": "Made Without",
+                    "reasonsForChange": "Upgrade",
+                    "supplierAssigned": "No"
+                }
+            }
+        ],
+        "information": {
+            "id": "68c94707b0dd79e14e69395d",
+            "projectName": "25-26 Amb Celeb Easter Confectionery",
+            "templateId": "Standard",
+            "templateName": "Standard",
+            "status": "Creative Stage",
+            "projectType": "Standard NPD",
+            "financialYear": "2025-2026",
+            "projectCompletionDate": "2025-12-29T00:00:00",
+            "comments": "",
+            "cluster": "Ambient Food"
+        }
+    },
+    "exception": null,
+    "status": true
+}</t>
+  </si>
+  <si>
+    <t>{"projectId":"68c94707b0dd79e14e69395d","userRole":"projectManager"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,12 +3378,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -234,24 +3425,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +3492,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -323,6 +3526,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,9 +3561,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,14 +3737,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:F43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,635 +3765,1084 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+      <c r="E26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+      <c r="E28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="E29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
+      <c r="E40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
+      <c r="E41" s="2"/>
+      <c r="F41" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
+      <c r="E42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
+      <c r="E43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197183C7-E93E-40C5-AFF0-0B0BA449E775}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
